--- a/table/Table_S3_Selective_sweep.xlsx
+++ b/table/Table_S3_Selective_sweep.xlsx
@@ -49,7 +49,8 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Supplementary Table2. Selective sweeps detected between populations</t>
+    <t>Table S3. Selective sweeps detected between populations</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1025,7 +1026,7 @@
   <dimension ref="A1:E4062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4053" sqref="G4053"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/table/Table_S3_Selective_sweep.xlsx
+++ b/table/Table_S3_Selective_sweep.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$E$2:$E$4062</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$2:$E$4062</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1015,7 +1015,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:E4062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
